--- a/docs/table-designs.xlsx
+++ b/docs/table-designs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>t_admin_user</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>REPLY_MESSAGE</t>
+  </si>
+  <si>
+    <t>DTM_CREATED_ON</t>
+  </si>
+  <si>
+    <t>VCH_CREATED_BY</t>
+  </si>
+  <si>
+    <t>VCH_UPDATED_BY</t>
   </si>
 </sst>
 </file>
@@ -231,15 +240,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -332,19 +347,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -373,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M48"/>
+  <dimension ref="B2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,12 +686,13 @@
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -702,8 +705,11 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -731,11 +737,20 @@
       <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:16">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -746,8 +761,11 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -758,8 +776,11 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -772,21 +793,24 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -804,14 +828,23 @@
       <c r="K7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:16">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -825,12 +858,12 @@
       <c r="L8" s="12"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1">
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
@@ -847,14 +880,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:16">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:16">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -865,13 +898,16 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
@@ -888,7 +924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:16">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1077,7 +1113,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:13">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1085,12 +1121,12 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1">
+    <row r="35" spans="2:13" ht="15.75" thickBot="1">
       <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
@@ -1118,8 +1154,11 @@
       <c r="J35" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1129,13 +1168,16 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1">
+    <row r="39" spans="2:13" ht="15.75" thickBot="1">
       <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:13">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1163,12 +1205,12 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1">
+    <row r="42" spans="2:13" ht="15.75" thickBot="1">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1">
+    <row r="43" spans="2:13" ht="15.75" thickBot="1">
       <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
@@ -1196,8 +1238,11 @@
       <c r="J43" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1207,13 +1252,16 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" thickBot="1">
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1">
+    <row r="47" spans="2:13" ht="15.75" thickBot="1">
       <c r="B47" s="9" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:13">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
